--- a/SN_GR_PResencia_prom.xlsx
+++ b/SN_GR_PResencia_prom.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="13620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="13620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$63</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="125">
   <si>
     <t>Logfia__minima</t>
   </si>
@@ -387,6 +388,12 @@
   </si>
   <si>
     <t>GRNA_frec_prom</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>GR</t>
   </si>
 </sst>
 </file>
@@ -879,7 +886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7910,8 +7917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9907,4 +9914,885 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0.12333333333333334</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="D5">
+        <v>2.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.3333333333333342E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.26333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="D11">
+        <v>0.73666666666666658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.22000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0.01</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0.28666666666666663</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>6.3333333333333339E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>0.13666666666666669</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2.6666666666666668E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.19333333333333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>0.94666666666666655</v>
+      </c>
+      <c r="D39">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.2166666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2.6666666666666668E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>0.03</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>7.6666666666666675E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <v>0.01</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>3.3333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>0.01</v>
+      </c>
+      <c r="D52">
+        <v>6.3333333333333339E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>9.3333333333333338E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0.30666666666666664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>2.6666666666666668E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0.11333333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62">
+        <v>0.10666666666666669</v>
+      </c>
+      <c r="D62">
+        <v>0.14333333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>